--- a/format_encodings/documents/Keyboard Table (ASCII Encoding).xlsx
+++ b/format_encodings/documents/Keyboard Table (ASCII Encoding).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="151">
   <si>
     <t>Special</t>
   </si>
@@ -44,6 +44,9 @@
     <t>a</t>
   </si>
   <si>
+    <t>97</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>98</t>
   </si>
   <si>
     <t>B</t>
@@ -80,6 +86,9 @@
     <t>c</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
@@ -96,6 +105,9 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
   <si>
     <t>D</t>
@@ -116,6 +128,9 @@
     <t>e</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
     <t>E</t>
   </si>
   <si>
@@ -134,6 +149,9 @@
     <t>f</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -147,6 +165,9 @@
   </si>
   <si>
     <t>g</t>
+  </si>
+  <si>
+    <t>103</t>
   </si>
   <si>
     <t>G</t>
@@ -164,6 +185,9 @@
     <t>h</t>
   </si>
   <si>
+    <t>104</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
@@ -177,6 +201,9 @@
   </si>
   <si>
     <t>i</t>
+  </si>
+  <si>
+    <t>105</t>
   </si>
   <si>
     <t>I</t>
@@ -194,6 +221,9 @@
     <t>j</t>
   </si>
   <si>
+    <t>106</t>
+  </si>
+  <si>
     <t>J</t>
   </si>
   <si>
@@ -209,6 +239,9 @@
     <t>k</t>
   </si>
   <si>
+    <t>107</t>
+  </si>
+  <si>
     <t>K</t>
   </si>
   <si>
@@ -216,6 +249,9 @@
   </si>
   <si>
     <t>l</t>
+  </si>
+  <si>
+    <t>108</t>
   </si>
   <si>
     <t>L</t>
@@ -227,6 +263,9 @@
     <t>m</t>
   </si>
   <si>
+    <t>109</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
@@ -234,6 +273,9 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>110</t>
   </si>
   <si>
     <t>N</t>
@@ -245,6 +287,9 @@
     <t>o</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
     <t>O</t>
   </si>
   <si>
@@ -252,6 +297,9 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>112</t>
   </si>
   <si>
     <t>P</t>
@@ -263,10 +311,16 @@
     <t>q</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>Q</t>
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>114</t>
   </si>
   <si>
     <t>R</t>
@@ -275,10 +329,16 @@
     <t>s</t>
   </si>
   <si>
+    <t>115</t>
+  </si>
+  <si>
     <t>S</t>
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>116</t>
   </si>
   <si>
     <t>T</t>
@@ -287,10 +347,16 @@
     <t>u</t>
   </si>
   <si>
+    <t>117</t>
+  </si>
+  <si>
     <t>U</t>
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>118</t>
   </si>
   <si>
     <t>V</t>
@@ -299,10 +365,16 @@
     <t>w</t>
   </si>
   <si>
+    <t>119</t>
+  </si>
+  <si>
     <t>W</t>
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>120</t>
   </si>
   <si>
     <t>X</t>
@@ -311,10 +383,16 @@
     <t>y</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
     <t>z</t>
+  </si>
+  <si>
+    <t>122</t>
   </si>
   <si>
     <t>Z</t>
@@ -323,130 +401,52 @@
     <t>esc</t>
   </si>
   <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>107</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>108</t>
-  </si>
-  <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>109</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>14</t>
-  </si>
-  <si>
-    <t>111</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>16</t>
-  </si>
-  <si>
-    <t>113</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>18</t>
-  </si>
-  <si>
-    <t>115</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>116</t>
-  </si>
-  <si>
     <t>20</t>
-  </si>
-  <si>
-    <t>117</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>118</t>
-  </si>
-  <si>
     <t>22</t>
-  </si>
-  <si>
-    <t>119</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>25</t>
-  </si>
-  <si>
-    <t>122</t>
   </si>
   <si>
     <t>26</t>
@@ -471,7 +471,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -490,6 +490,10 @@
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
+      <name val="Source Code Pro"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
       <name val="Source Code Pro"/>
     </font>
     <font>
@@ -548,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -582,26 +586,32 @@
     <xf borderId="3" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf quotePrefix="1" borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -978,32 +988,42 @@
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="12" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="12" t="s">
+      <c r="I4" s="11">
+        <v>65.0</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="13"/>
+      <c r="L4" s="11">
+        <v>48.0</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="11">
+        <v>32.0</v>
+      </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="R4" s="13"/>
+      <c r="R4" s="11"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
@@ -1022,34 +1042,44 @@
     <row r="5">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="12" t="s">
+      <c r="C5" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="12" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="13"/>
+      <c r="I5" s="11">
+        <v>66.0</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="11">
+        <v>49.0</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="11">
+        <v>33.0</v>
+      </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
-      <c r="R5" s="13"/>
+      <c r="R5" s="11"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
@@ -1068,34 +1098,44 @@
     <row r="6">
       <c r="A6" s="9"/>
       <c r="B6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="12" t="s">
+      <c r="C6" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="13"/>
+      <c r="F6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="11">
+        <v>67.0</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="11">
+        <v>50.0</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
-      <c r="O6" s="13"/>
+      <c r="O6" s="11">
+        <v>34.0</v>
+      </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
-      <c r="R6" s="13"/>
+      <c r="R6" s="11"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
@@ -1114,34 +1154,44 @@
     <row r="7">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="13"/>
+      <c r="C7" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="11">
+        <v>68.0</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="11">
+        <v>51.0</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
-      <c r="O7" s="13"/>
+      <c r="O7" s="11">
+        <v>35.0</v>
+      </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
-      <c r="R7" s="13"/>
+      <c r="R7" s="11"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -1160,34 +1210,44 @@
     <row r="8">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
-        <v>33</v>
+      <c r="C8" s="11">
+        <v>4.0</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="12" t="s">
-        <v>34</v>
+      <c r="H8" s="13" t="s">
+        <v>39</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="11">
+        <v>69.0</v>
+      </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="12" t="s">
-        <v>35</v>
+      <c r="K8" s="13" t="s">
+        <v>40</v>
       </c>
-      <c r="L8" s="13"/>
+      <c r="L8" s="11">
+        <v>52.0</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
-      <c r="O8" s="13"/>
+      <c r="O8" s="11">
+        <v>36.0</v>
+      </c>
       <c r="P8" s="4"/>
-      <c r="Q8" s="13" t="s">
-        <v>37</v>
+      <c r="Q8" s="17" t="s">
+        <v>42</v>
       </c>
-      <c r="R8" s="13"/>
+      <c r="R8" s="11"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -1206,29 +1266,39 @@
     <row r="9">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
-        <v>39</v>
+      <c r="C9" s="11">
+        <v>5.0</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="12" t="s">
-        <v>40</v>
+      <c r="H9" s="13" t="s">
+        <v>46</v>
       </c>
-      <c r="I9" s="13"/>
+      <c r="I9" s="11">
+        <v>70.0</v>
+      </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="12" t="s">
-        <v>41</v>
+      <c r="K9" s="13" t="s">
+        <v>47</v>
       </c>
-      <c r="L9" s="13"/>
+      <c r="L9" s="11">
+        <v>53.0</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="14" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
-      <c r="O9" s="13"/>
+      <c r="O9" s="11">
+        <v>37.0</v>
+      </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="3"/>
@@ -1250,29 +1320,39 @@
     <row r="10">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12" t="s">
-        <v>44</v>
+      <c r="C10" s="11">
+        <v>6.0</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="12" t="s">
-        <v>45</v>
+      <c r="H10" s="13" t="s">
+        <v>52</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="11">
+        <v>71.0</v>
+      </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="12" t="s">
-        <v>46</v>
+      <c r="K10" s="13" t="s">
+        <v>53</v>
       </c>
-      <c r="L10" s="13"/>
+      <c r="L10" s="11">
+        <v>54.0</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="14" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
-      <c r="O10" s="13"/>
+      <c r="O10" s="11">
+        <v>38.0</v>
+      </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1294,29 +1374,39 @@
     <row r="11">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12" t="s">
-        <v>49</v>
+      <c r="C11" s="11">
+        <v>7.0</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="12" t="s">
-        <v>50</v>
+      <c r="H11" s="13" t="s">
+        <v>58</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="11">
+        <v>72.0</v>
+      </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="12" t="s">
-        <v>51</v>
+      <c r="K11" s="13" t="s">
+        <v>59</v>
       </c>
-      <c r="L11" s="13"/>
+      <c r="L11" s="11">
+        <v>55.0</v>
+      </c>
       <c r="M11" s="4"/>
-      <c r="N11" s="17" t="s">
-        <v>52</v>
+      <c r="N11" s="18" t="s">
+        <v>60</v>
       </c>
-      <c r="O11" s="13"/>
+      <c r="O11" s="11">
+        <v>39.0</v>
+      </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -1336,31 +1426,41 @@
       <c r="AF11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="10" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12" t="s">
-        <v>54</v>
+      <c r="C12" s="11">
+        <v>8.0</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="12" t="s">
-        <v>55</v>
+      <c r="H12" s="13" t="s">
+        <v>64</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="I12" s="11">
+        <v>73.0</v>
+      </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="12" t="s">
-        <v>56</v>
+      <c r="K12" s="13" t="s">
+        <v>65</v>
       </c>
-      <c r="L12" s="13"/>
+      <c r="L12" s="11">
+        <v>56.0</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="14" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
-      <c r="O12" s="13"/>
+      <c r="O12" s="11">
+        <v>40.0</v>
+      </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -1382,29 +1482,39 @@
     <row r="13">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12" t="s">
-        <v>59</v>
+      <c r="C13" s="11">
+        <v>9.0</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="12" t="s">
-        <v>60</v>
+      <c r="H13" s="13" t="s">
+        <v>70</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="11">
+        <v>74.0</v>
+      </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="12" t="s">
-        <v>61</v>
+      <c r="K13" s="13" t="s">
+        <v>71</v>
       </c>
-      <c r="L13" s="13"/>
+      <c r="L13" s="11">
+        <v>57.0</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="14" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
-      <c r="O13" s="13"/>
+      <c r="O13" s="11">
+        <v>41.0</v>
+      </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -1426,27 +1536,35 @@
     <row r="14">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12" t="s">
-        <v>64</v>
+      <c r="C14" s="11">
+        <v>10.0</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="12" t="s">
-        <v>65</v>
+      <c r="H14" s="13" t="s">
+        <v>76</v>
       </c>
-      <c r="I14" s="13"/>
+      <c r="I14" s="11">
+        <v>75.0</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="14" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
-      <c r="O14" s="13"/>
+      <c r="O14" s="11">
+        <v>42.0</v>
+      </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -1466,27 +1584,35 @@
       <c r="AF14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12" t="s">
-        <v>67</v>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="11">
+        <v>11.0</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="12" t="s">
-        <v>68</v>
+      <c r="H15" s="13" t="s">
+        <v>80</v>
       </c>
-      <c r="I15" s="13"/>
+      <c r="I15" s="11">
+        <v>76.0</v>
+      </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="17" t="s">
-        <v>69</v>
+      <c r="N15" s="18" t="s">
+        <v>81</v>
       </c>
-      <c r="O15" s="13"/>
+      <c r="O15" s="11">
+        <v>43.0</v>
+      </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -1506,27 +1632,35 @@
       <c r="AF15" s="4"/>
     </row>
     <row r="16">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12" t="s">
-        <v>70</v>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="11">
+        <v>12.0</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="12" t="s">
-        <v>71</v>
+      <c r="H16" s="13" t="s">
+        <v>84</v>
       </c>
-      <c r="I16" s="13"/>
+      <c r="I16" s="11">
+        <v>77.0</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="14" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
-      <c r="O16" s="13"/>
+      <c r="O16" s="11">
+        <v>44.0</v>
+      </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -1546,27 +1680,35 @@
       <c r="AF16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12" t="s">
-        <v>73</v>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="11">
+        <v>13.0</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="12" t="s">
-        <v>74</v>
+      <c r="H17" s="13" t="s">
+        <v>88</v>
       </c>
-      <c r="I17" s="13"/>
+      <c r="I17" s="11">
+        <v>78.0</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="14" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
-      <c r="O17" s="13"/>
+      <c r="O17" s="11">
+        <v>45.0</v>
+      </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -1586,27 +1728,35 @@
       <c r="AF17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12" t="s">
-        <v>76</v>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="11">
+        <v>14.0</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="12" t="s">
-        <v>77</v>
+      <c r="H18" s="13" t="s">
+        <v>92</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" s="11">
+        <v>79.0</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="14" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
-      <c r="O18" s="13"/>
+      <c r="O18" s="11">
+        <v>46.0</v>
+      </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -1626,27 +1776,35 @@
       <c r="AF18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12" t="s">
-        <v>79</v>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="11">
+        <v>15.0</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="12" t="s">
-        <v>80</v>
+      <c r="H19" s="13" t="s">
+        <v>96</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="11">
+        <v>80.0</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="14" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
-      <c r="O19" s="13"/>
+      <c r="O19" s="11">
+        <v>47.0</v>
+      </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -1666,19 +1824,25 @@
       <c r="AF19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12" t="s">
-        <v>82</v>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="11">
+        <v>16.0</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="12" t="s">
-        <v>83</v>
+      <c r="H20" s="13" t="s">
+        <v>100</v>
       </c>
-      <c r="I20" s="13"/>
+      <c r="I20" s="11">
+        <v>81.0</v>
+      </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -1704,19 +1868,25 @@
       <c r="AF20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12" t="s">
-        <v>84</v>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="11">
+        <v>17.0</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="12" t="s">
-        <v>85</v>
+      <c r="H21" s="13" t="s">
+        <v>103</v>
       </c>
-      <c r="I21" s="13"/>
+      <c r="I21" s="11">
+        <v>82.0</v>
+      </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -1742,19 +1912,25 @@
       <c r="AF21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12" t="s">
-        <v>86</v>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="11">
+        <v>18.0</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="12" t="s">
-        <v>87</v>
+      <c r="H22" s="13" t="s">
+        <v>106</v>
       </c>
-      <c r="I22" s="13"/>
+      <c r="I22" s="11">
+        <v>83.0</v>
+      </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -1780,26 +1956,30 @@
       <c r="AF22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12" t="s">
-        <v>88</v>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="11">
+        <v>19.0</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="12" t="s">
-        <v>89</v>
+      <c r="H23" s="13" t="s">
+        <v>109</v>
       </c>
-      <c r="I23" s="13"/>
+      <c r="I23" s="11">
+        <v>84.0</v>
+      </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="N23" s="19"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -1820,19 +2000,25 @@
       <c r="AF23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12" t="s">
-        <v>90</v>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="11">
+        <v>20.0</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="12" t="s">
-        <v>91</v>
+      <c r="H24" s="13" t="s">
+        <v>112</v>
       </c>
-      <c r="I24" s="13"/>
+      <c r="I24" s="11">
+        <v>85.0</v>
+      </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -1858,19 +2044,25 @@
       <c r="AF24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12" t="s">
-        <v>92</v>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="11">
+        <v>21.0</v>
       </c>
-      <c r="F25" s="10"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="G25" s="4"/>
-      <c r="H25" s="12" t="s">
-        <v>93</v>
+      <c r="H25" s="13" t="s">
+        <v>115</v>
       </c>
-      <c r="I25" s="13"/>
+      <c r="I25" s="11">
+        <v>86.0</v>
+      </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -1896,19 +2088,25 @@
       <c r="AF25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12" t="s">
-        <v>94</v>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="11">
+        <v>22.0</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="12" t="s">
-        <v>95</v>
+      <c r="H26" s="13" t="s">
+        <v>118</v>
       </c>
-      <c r="I26" s="13"/>
+      <c r="I26" s="11">
+        <v>87.0</v>
+      </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -1934,19 +2132,25 @@
       <c r="AF26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12" t="s">
-        <v>96</v>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="11">
+        <v>23.0</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="12" t="s">
-        <v>97</v>
+      <c r="H27" s="13" t="s">
+        <v>121</v>
       </c>
-      <c r="I27" s="13"/>
+      <c r="I27" s="11">
+        <v>88.0</v>
+      </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -1972,19 +2176,25 @@
       <c r="AF27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12" t="s">
-        <v>98</v>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="11">
+        <v>24.0</v>
       </c>
-      <c r="F28" s="10"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="12" t="s">
-        <v>99</v>
+      <c r="H28" s="13" t="s">
+        <v>124</v>
       </c>
-      <c r="I28" s="13"/>
+      <c r="I28" s="11">
+        <v>89.0</v>
+      </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -2010,19 +2220,25 @@
       <c r="AF28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12" t="s">
-        <v>100</v>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="11">
+        <v>25.0</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="12" t="s">
-        <v>101</v>
+      <c r="H29" s="13" t="s">
+        <v>127</v>
       </c>
-      <c r="I29" s="13"/>
+      <c r="I29" s="11">
+        <v>90.0</v>
+      </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -2049,8 +2265,10 @@
     </row>
     <row r="30">
       <c r="A30" s="4"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="10"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="11">
+        <v>26.0</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -2083,10 +2301,12 @@
     </row>
     <row r="31">
       <c r="A31" s="4"/>
-      <c r="B31" s="13" t="s">
-        <v>102</v>
+      <c r="B31" s="17" t="s">
+        <v>128</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="11">
+        <v>27.0</v>
+      </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -2119,8 +2339,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="11">
+        <v>28.0</v>
+      </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2153,8 +2375,10 @@
     </row>
     <row r="33">
       <c r="A33" s="4"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="10"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="11">
+        <v>29.0</v>
+      </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -2187,8 +2411,10 @@
     </row>
     <row r="34">
       <c r="A34" s="4"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="10"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="11">
+        <v>30.0</v>
+      </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -2221,8 +2447,10 @@
     </row>
     <row r="35">
       <c r="A35" s="4"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="10"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="11">
+        <v>31.0</v>
+      </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -35307,41 +35535,41 @@
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="12" t="s">
-        <v>10</v>
+      <c r="H4" s="13" t="s">
+        <v>11</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="17">
         <v>65.0</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="12" t="s">
-        <v>11</v>
+      <c r="K4" s="13" t="s">
+        <v>12</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="17">
         <v>48.0</v>
       </c>
       <c r="M4" s="4"/>
-      <c r="N4" s="12" t="s">
-        <v>12</v>
+      <c r="N4" s="13" t="s">
+        <v>13</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="17">
         <v>32.0</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="17">
         <v>123.0</v>
       </c>
       <c r="S4" s="4"/>
@@ -35362,44 +35590,44 @@
     <row r="5">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12" t="s">
-        <v>15</v>
+      <c r="G5" s="4"/>
+      <c r="H5" s="13" t="s">
+        <v>18</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="13">
+      <c r="I5" s="17">
         <v>66.0</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="12" t="s">
-        <v>17</v>
+      <c r="K5" s="13" t="s">
+        <v>19</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="17">
         <v>49.0</v>
       </c>
       <c r="M5" s="4"/>
-      <c r="N5" s="12" t="s">
-        <v>18</v>
+      <c r="N5" s="13" t="s">
+        <v>20</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="17">
         <v>33.0</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
-      <c r="R5" s="13">
+      <c r="R5" s="17">
         <v>124.0</v>
       </c>
       <c r="S5" s="4"/>
@@ -35420,44 +35648,44 @@
     <row r="6">
       <c r="A6" s="9"/>
       <c r="B6" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="F6" s="10" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="12" t="s">
-        <v>22</v>
+      <c r="H6" s="13" t="s">
+        <v>25</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="17">
         <v>67.0</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="12" t="s">
-        <v>23</v>
+      <c r="K6" s="13" t="s">
+        <v>26</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="17">
         <v>50.0</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="17">
         <v>34.0</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="17">
         <v>125.0</v>
       </c>
       <c r="S6" s="4"/>
@@ -35478,44 +35706,44 @@
     <row r="7">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
-        <v>27</v>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="12" t="s">
-        <v>28</v>
+      <c r="H7" s="13" t="s">
+        <v>32</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="17">
         <v>68.0</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="12" t="s">
-        <v>29</v>
+      <c r="K7" s="13" t="s">
+        <v>33</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="17">
         <v>51.0</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="17">
         <v>35.0</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R7" s="17">
         <v>126.0</v>
       </c>
       <c r="S7" s="4"/>
@@ -35536,44 +35764,44 @@
     <row r="8">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
-        <v>33</v>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="12" t="s">
-        <v>34</v>
+      <c r="H8" s="13" t="s">
+        <v>39</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="17">
         <v>69.0</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="12" t="s">
-        <v>35</v>
+      <c r="K8" s="13" t="s">
+        <v>40</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="17">
         <v>52.0</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="17">
         <v>36.0</v>
       </c>
       <c r="P8" s="4"/>
-      <c r="Q8" s="13" t="s">
-        <v>37</v>
+      <c r="Q8" s="17" t="s">
+        <v>42</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8" s="17">
         <v>127.0</v>
       </c>
       <c r="S8" s="4"/>
@@ -35594,37 +35822,37 @@
     <row r="9">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
-        <v>39</v>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="12" t="s">
-        <v>40</v>
+      <c r="H9" s="13" t="s">
+        <v>46</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="17">
         <v>70.0</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="12" t="s">
-        <v>41</v>
+      <c r="K9" s="13" t="s">
+        <v>47</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="17">
         <v>53.0</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="14" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="17">
         <v>37.0</v>
       </c>
       <c r="P9" s="4"/>
@@ -35648,37 +35876,37 @@
     <row r="10">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12" t="s">
-        <v>44</v>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="12" t="s">
-        <v>45</v>
+      <c r="H10" s="13" t="s">
+        <v>52</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="17">
         <v>71.0</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="12" t="s">
-        <v>46</v>
+      <c r="K10" s="13" t="s">
+        <v>53</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="17">
         <v>54.0</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="14" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="17">
         <v>38.0</v>
       </c>
       <c r="P10" s="4"/>
@@ -35702,37 +35930,37 @@
     <row r="11">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12" t="s">
-        <v>49</v>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="12" t="s">
-        <v>50</v>
+      <c r="H11" s="13" t="s">
+        <v>58</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="17">
         <v>72.0</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="12" t="s">
-        <v>51</v>
+      <c r="K11" s="13" t="s">
+        <v>59</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="17">
         <v>55.0</v>
       </c>
       <c r="M11" s="4"/>
-      <c r="N11" s="17" t="s">
-        <v>52</v>
+      <c r="N11" s="18" t="s">
+        <v>60</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="17">
         <v>39.0</v>
       </c>
       <c r="P11" s="4"/>
@@ -35754,39 +35982,39 @@
       <c r="AF11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="10" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12" t="s">
-        <v>54</v>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="12" t="s">
-        <v>55</v>
+      <c r="H12" s="13" t="s">
+        <v>64</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="17">
         <v>73.0</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="12" t="s">
-        <v>56</v>
+      <c r="K12" s="13" t="s">
+        <v>65</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="17">
         <v>56.0</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="14" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="17">
         <v>40.0</v>
       </c>
       <c r="P12" s="4"/>
@@ -35810,37 +36038,37 @@
     <row r="13">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12" t="s">
-        <v>59</v>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="12" t="s">
-        <v>60</v>
+      <c r="H13" s="13" t="s">
+        <v>70</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="17">
         <v>74.0</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="12" t="s">
-        <v>61</v>
+      <c r="K13" s="13" t="s">
+        <v>71</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="17">
         <v>57.0</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="14" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="17">
         <v>41.0</v>
       </c>
       <c r="P13" s="4"/>
@@ -35864,23 +36092,23 @@
     <row r="14">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12" t="s">
-        <v>64</v>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="12" t="s">
-        <v>65</v>
+      <c r="H14" s="13" t="s">
+        <v>76</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="17">
         <v>75.0</v>
       </c>
       <c r="J14" s="4"/>
@@ -35888,9 +36116,9 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="14" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="17">
         <v>42.0</v>
       </c>
       <c r="P14" s="4"/>
@@ -35912,33 +36140,33 @@
       <c r="AF14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="10" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12" t="s">
-        <v>67</v>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="12" t="s">
-        <v>68</v>
+      <c r="H15" s="13" t="s">
+        <v>80</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="17">
         <v>76.0</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="17" t="s">
-        <v>69</v>
+      <c r="N15" s="18" t="s">
+        <v>81</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="17">
         <v>43.0</v>
       </c>
       <c r="P15" s="4"/>
@@ -35960,23 +36188,23 @@
       <c r="AF15" s="4"/>
     </row>
     <row r="16">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="10" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12" t="s">
-        <v>70</v>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="12" t="s">
-        <v>71</v>
+      <c r="H16" s="13" t="s">
+        <v>84</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="17">
         <v>77.0</v>
       </c>
       <c r="J16" s="4"/>
@@ -35984,9 +36212,9 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="14" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="17">
         <v>44.0</v>
       </c>
       <c r="P16" s="4"/>
@@ -36008,23 +36236,23 @@
       <c r="AF16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="10" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12" t="s">
-        <v>73</v>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="12" t="s">
-        <v>74</v>
+      <c r="H17" s="13" t="s">
+        <v>88</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="17">
         <v>78.0</v>
       </c>
       <c r="J17" s="4"/>
@@ -36032,9 +36260,9 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="14" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="17">
         <v>45.0</v>
       </c>
       <c r="P17" s="4"/>
@@ -36056,23 +36284,23 @@
       <c r="AF17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="10" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12" t="s">
-        <v>76</v>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="12" t="s">
-        <v>77</v>
+      <c r="H18" s="13" t="s">
+        <v>92</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="17">
         <v>79.0</v>
       </c>
       <c r="J18" s="4"/>
@@ -36080,9 +36308,9 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="14" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="17">
         <v>46.0</v>
       </c>
       <c r="P18" s="4"/>
@@ -36104,23 +36332,23 @@
       <c r="AF18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="10" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12" t="s">
-        <v>79</v>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="12" t="s">
-        <v>80</v>
+      <c r="H19" s="13" t="s">
+        <v>96</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="17">
         <v>80.0</v>
       </c>
       <c r="J19" s="4"/>
@@ -36128,9 +36356,9 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="14" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="17">
         <v>47.0</v>
       </c>
       <c r="P19" s="4"/>
@@ -36152,23 +36380,23 @@
       <c r="AF19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="10" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12" t="s">
-        <v>82</v>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="12" t="s">
-        <v>83</v>
+      <c r="H20" s="13" t="s">
+        <v>100</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="17">
         <v>81.0</v>
       </c>
       <c r="J20" s="4"/>
@@ -36196,23 +36424,23 @@
       <c r="AF20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12" t="s">
-        <v>84</v>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="12" t="s">
-        <v>85</v>
+      <c r="H21" s="13" t="s">
+        <v>103</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="17">
         <v>82.0</v>
       </c>
       <c r="J21" s="4"/>
@@ -36240,23 +36468,23 @@
       <c r="AF21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="10" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12" t="s">
-        <v>86</v>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="12" t="s">
-        <v>87</v>
+      <c r="H22" s="13" t="s">
+        <v>106</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="17">
         <v>83.0</v>
       </c>
       <c r="J22" s="4"/>
@@ -36284,23 +36512,23 @@
       <c r="AF22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="10" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12" t="s">
-        <v>88</v>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="12" t="s">
-        <v>89</v>
+      <c r="H23" s="13" t="s">
+        <v>109</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="17">
         <v>84.0</v>
       </c>
       <c r="J23" s="4"/>
@@ -36308,7 +36536,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="3" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -36330,23 +36558,23 @@
       <c r="AF23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12" t="s">
-        <v>90</v>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="12" t="s">
-        <v>91</v>
+      <c r="H24" s="13" t="s">
+        <v>112</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="17">
         <v>85.0</v>
       </c>
       <c r="J24" s="4"/>
@@ -36374,23 +36602,23 @@
       <c r="AF24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12" t="s">
-        <v>92</v>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="G25" s="4"/>
-      <c r="H25" s="12" t="s">
-        <v>93</v>
+      <c r="H25" s="13" t="s">
+        <v>115</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="17">
         <v>86.0</v>
       </c>
       <c r="J25" s="4"/>
@@ -36418,23 +36646,23 @@
       <c r="AF25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12" t="s">
-        <v>94</v>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="12" t="s">
-        <v>95</v>
+      <c r="H26" s="13" t="s">
+        <v>118</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="17">
         <v>87.0</v>
       </c>
       <c r="J26" s="4"/>
@@ -36462,23 +36690,23 @@
       <c r="AF26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12" t="s">
-        <v>96</v>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="12" t="s">
-        <v>97</v>
+      <c r="H27" s="13" t="s">
+        <v>121</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="17">
         <v>88.0</v>
       </c>
       <c r="J27" s="4"/>
@@ -36506,23 +36734,23 @@
       <c r="AF27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12" t="s">
-        <v>98</v>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="12" t="s">
-        <v>99</v>
+      <c r="H28" s="13" t="s">
+        <v>124</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="17">
         <v>89.0</v>
       </c>
       <c r="J28" s="4"/>
@@ -36550,23 +36778,23 @@
       <c r="AF28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12" t="s">
-        <v>100</v>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="12" t="s">
-        <v>101</v>
+      <c r="H29" s="13" t="s">
+        <v>127</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="17">
         <v>90.0</v>
       </c>
       <c r="J29" s="4"/>
@@ -36595,7 +36823,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4"/>
-      <c r="B30" s="18"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="10" t="s">
         <v>145</v>
       </c>
@@ -36631,8 +36859,8 @@
     </row>
     <row r="31">
       <c r="A31" s="4"/>
-      <c r="B31" s="13" t="s">
-        <v>102</v>
+      <c r="B31" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>146</v>
@@ -36669,7 +36897,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4"/>
-      <c r="B32" s="18"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="10" t="s">
         <v>147</v>
       </c>
@@ -36705,7 +36933,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4"/>
-      <c r="B33" s="18"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="10" t="s">
         <v>148</v>
       </c>
@@ -36741,7 +36969,7 @@
     </row>
     <row r="34">
       <c r="A34" s="4"/>
-      <c r="B34" s="18"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="10" t="s">
         <v>149</v>
       </c>
@@ -36777,7 +37005,7 @@
     </row>
     <row r="35">
       <c r="A35" s="4"/>
-      <c r="B35" s="18"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="10" t="s">
         <v>150</v>
       </c>
